--- a/biology/Histoire de la zoologie et de la botanique/Laurent-Guillaume_de_Koninck/Laurent-Guillaume_de_Koninck.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Laurent-Guillaume_de_Koninck/Laurent-Guillaume_de_Koninck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laurent-Guillaume de Koninck, né le 3 mai 1809 à Louvain et décédé le 16 juillet 1887 (à 78 ans) à Liège, est un paléontologue et chimiste belge.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Laurent-Guillaume de Koninck étudie la médecine à l'Université d'État de Louvain et devient assistant à l'école de chimie en 1831. Il poursuit ses études de chimie à Paris, Berlin et Giessen puis enseigne les sciences à Gand et Liège. De  1856 jusqu'à la fin de sa carrière il est professeur de chimie à l'université de Liège.
 À partir de 1835 il consacre son temps libre aux fossiles du Carbonifère découverts aux alentours de Liège et finit par se distinguer pour ses recherches sur les couches datant du Paléozoïque, plus particulièrement pour ses descriptions de mollusques, crustacés et crinoïdes des calcaires du Carbonifère de Belgique. En reconnaissance de ces travaux la Geological Society of London lui décerne la médaille Wollaston en 1875. Il devient professeur de paléontologie à Liège.
@@ -545,7 +559,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Éléments de chimie inorganique, 1839
 Description des animaux fossiles qui se trouvent dans le terrain Carbonifère de Belgique, 1842-1844, étendu en 1851
@@ -578,7 +594,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La rue Laurent de Koninck à Liège dans le quartier du Laveu lui rend hommage.
 </t>
@@ -609,7 +627,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> (en) « Laurent-Guillaume de Koninck », dans Encyclopædia Britannica [détail de l’édition], 1911 (lire sur Wikisource).</t>
         </is>
